--- a/public/downloads/import_employees.xlsx
+++ b/public/downloads/import_employees.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="188" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Prefix</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>PER</t>
-  </si>
-  <si>
-    <t>06/26/2014</t>
   </si>
   <si>
     <t>Mrs</t>
@@ -147,46 +144,47 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
       <b val="true"/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF0563C1"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,7 +196,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -207,64 +205,72 @@
     </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -336,11 +342,11 @@
   </sheetPr>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="M1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="N2" activeCellId="0" pane="topLeft" sqref="N2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1479591836735"/>
@@ -349,7 +355,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0051020408163"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5765306122449"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7142857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="37.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.4183673469388"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7091836734694"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.7091836734694"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.1479591836735"/>
@@ -364,7 +370,7 @@
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.75" outlineLevel="0" r="1" s="2">
+    <row r="1" s="2" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -398,10 +404,10 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -426,7 +432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>20</v>
       </c>
@@ -439,7 +445,7 @@
       <c r="D2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -448,7 +454,7 @@
       <c r="G2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -460,52 +466,52 @@
       <c r="K2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="1" t="n">
+        <v>41246</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
+      <c r="L3" s="1" t="n">
+        <v>41246</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
